--- a/Excel - VBA/COURS_1.xlsx
+++ b/Excel - VBA/COURS_1.xlsx
@@ -8,22 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issak\Documents\M1\Excel - VBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30491BC6-6542-481F-8C05-0027CB214CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3707BF7E-EC5D-4207-A536-5543C76D9335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D478318B-CE9A-4812-9A9C-317DD8C188E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D478318B-CE9A-4812-9A9C-317DD8C188E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil6" sheetId="6" r:id="rId1"/>
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
-    <sheet name="FORMULE" sheetId="2" r:id="rId3"/>
-    <sheet name="NIVEAU" sheetId="3" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="8" r:id="rId3"/>
+    <sheet name="EXERCICE" sheetId="7" r:id="rId4"/>
+    <sheet name="FORMULE" sheetId="2" r:id="rId5"/>
+    <sheet name="NIVEAU" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="plage">NIVEAU!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="5" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="107">
   <si>
     <t>NUMERO</t>
   </si>
@@ -363,13 +366,20 @@
   </si>
   <si>
     <t>Étiquettes de colonnes</t>
+  </si>
+  <si>
+    <t>Moyenne de SALAIRE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +390,21 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -421,10 +446,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -435,11 +461,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,6 +548,79 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Issa Kachaou" refreshedDate="45556.438184143517" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="18" xr:uid="{BEEAB047-4FCD-4FA7-B29A-D0C862B72711}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:L19" sheet="EXERCICE"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems count="18">
+        <s v="1MC"/>
+        <s v="2FB"/>
+        <s v="3MC"/>
+        <s v="4FB"/>
+        <s v="5MC"/>
+        <s v="6MC"/>
+        <s v="7MC"/>
+        <s v="8FA"/>
+        <s v="9MC"/>
+        <s v="10MC"/>
+        <s v="11FC"/>
+        <s v="12FA"/>
+        <s v="13FB"/>
+        <s v="14FB"/>
+        <s v="15FC"/>
+        <s v="16FC"/>
+        <s v="17FA"/>
+        <s v="18MC"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="NUMERO" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="18"/>
+    </cacheField>
+    <cacheField name="SALAIRE" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="35163" maxValue="67412"/>
+    </cacheField>
+    <cacheField name="SEXE" numFmtId="0">
+      <sharedItems count="2">
+        <s v="M"/>
+        <s v="F"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="NIVEAU" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="DESCRIPTION" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="SALAIRE HORAIRE" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="100"/>
+    </cacheField>
+    <cacheField name="NUMERO_EXTRAIT" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="SEXE_EXTRAIT" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="NIVEAU_EXTRAIT" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="SALAIRE_MOYEN_SEXE" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="51278.6" maxValue="52918.375"/>
+    </cacheField>
+    <cacheField name="MASSE_SALARIALE" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="936133" maxValue="936133"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="70">
   <r>
@@ -1644,8 +1746,322 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="18">
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="51636"/>
+    <x v="0"/>
+    <s v="C"/>
+    <s v="Employé"/>
+    <n v="25"/>
+    <s v="1"/>
+    <s v="M"/>
+    <s v="C"/>
+    <n v="52918.375"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="49743"/>
+    <x v="1"/>
+    <s v="B"/>
+    <s v="Agent de maitrise"/>
+    <n v="50"/>
+    <s v="2"/>
+    <s v="F"/>
+    <s v="B"/>
+    <n v="51278.6"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="51775"/>
+    <x v="0"/>
+    <s v="C"/>
+    <s v="Employé"/>
+    <n v="25"/>
+    <s v="3"/>
+    <s v="M"/>
+    <s v="C"/>
+    <n v="52918.375"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="40552"/>
+    <x v="1"/>
+    <s v="B"/>
+    <s v="Agent de maitrise"/>
+    <n v="50"/>
+    <s v="4"/>
+    <s v="F"/>
+    <s v="B"/>
+    <n v="51278.6"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="54023"/>
+    <x v="0"/>
+    <s v="C"/>
+    <s v="Employé"/>
+    <n v="25"/>
+    <s v="5"/>
+    <s v="M"/>
+    <s v="C"/>
+    <n v="52918.375"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="6"/>
+    <n v="51844"/>
+    <x v="0"/>
+    <s v="C"/>
+    <s v="Employé"/>
+    <n v="25"/>
+    <s v="6"/>
+    <s v="M"/>
+    <s v="C"/>
+    <n v="52918.375"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="7"/>
+    <n v="67412"/>
+    <x v="0"/>
+    <s v="C"/>
+    <s v="Employé"/>
+    <n v="25"/>
+    <s v="7"/>
+    <s v="M"/>
+    <s v="C"/>
+    <n v="52918.375"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="8"/>
+    <n v="52591"/>
+    <x v="1"/>
+    <s v="A"/>
+    <s v="Cadre"/>
+    <n v="100"/>
+    <s v="8"/>
+    <s v="F"/>
+    <s v="A"/>
+    <n v="51278.6"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="9"/>
+    <n v="48051"/>
+    <x v="0"/>
+    <s v="C"/>
+    <s v="Employé"/>
+    <n v="25"/>
+    <s v="9"/>
+    <s v="M"/>
+    <s v="C"/>
+    <n v="52918.375"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="10"/>
+    <n v="63443"/>
+    <x v="0"/>
+    <s v="C"/>
+    <s v="Employé"/>
+    <n v="25"/>
+    <s v="10"/>
+    <s v="M"/>
+    <s v="C"/>
+    <n v="52918.375"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="11"/>
+    <n v="36991"/>
+    <x v="1"/>
+    <s v="C"/>
+    <s v="Employé"/>
+    <n v="25"/>
+    <s v="11"/>
+    <s v="F"/>
+    <s v="C"/>
+    <n v="51278.6"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="12"/>
+    <n v="65864"/>
+    <x v="1"/>
+    <s v="A"/>
+    <s v="Cadre"/>
+    <n v="100"/>
+    <s v="12"/>
+    <s v="F"/>
+    <s v="A"/>
+    <n v="51278.6"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="13"/>
+    <n v="48521"/>
+    <x v="1"/>
+    <s v="B"/>
+    <s v="Agent de maitrise"/>
+    <n v="50"/>
+    <s v="13"/>
+    <s v="F"/>
+    <s v="B"/>
+    <n v="51278.6"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="14"/>
+    <n v="52506"/>
+    <x v="1"/>
+    <s v="B"/>
+    <s v="Agent de maitrise"/>
+    <n v="50"/>
+    <s v="14"/>
+    <s v="F"/>
+    <s v="B"/>
+    <n v="51278.6"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="15"/>
+    <n v="47749"/>
+    <x v="1"/>
+    <s v="C"/>
+    <s v="Employé"/>
+    <n v="25"/>
+    <s v="15"/>
+    <s v="F"/>
+    <s v="C"/>
+    <n v="51278.6"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="16"/>
+    <n v="62956"/>
+    <x v="1"/>
+    <s v="C"/>
+    <s v="Employé"/>
+    <n v="25"/>
+    <s v="16"/>
+    <s v="F"/>
+    <s v="C"/>
+    <n v="51278.6"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="17"/>
+    <n v="55313"/>
+    <x v="1"/>
+    <s v="A"/>
+    <s v="Cadre"/>
+    <n v="100"/>
+    <s v="17"/>
+    <s v="F"/>
+    <s v="A"/>
+    <n v="51278.6"/>
+    <n v="936133"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="18"/>
+    <n v="35163"/>
+    <x v="0"/>
+    <s v="C"/>
+    <s v="Employé"/>
+    <n v="25"/>
+    <s v="18"/>
+    <s v="M"/>
+    <s v="C"/>
+    <n v="52918.375"/>
+    <n v="936133"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F186BA86-3C82-42B8-95DF-FD67DB670F8C}" name="Tableau croisé dynamique4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD4293A0-2805-4192-8E53-9425C6E5F4BF}" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Nombre de SALAIRE" fld="2" subtotal="count" baseField="3" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F186BA86-3C82-42B8-95DF-FD67DB670F8C}" name="Tableau croisé dynamique4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A20:C25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -1719,8 +2135,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BAF2AD8-5FD8-40B0-9BFD-79D91915AB12}" name="Tableau croisé dynamique3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BAF2AD8-5FD8-40B0-9BFD-79D91915AB12}" name="Tableau croisé dynamique3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A13:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -1786,17 +2202,39 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD4293A0-2805-4192-8E53-9425C6E5F4BF}" name="Tableau croisé dynamique2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B59867F-C707-49A1-926D-406B516631B2}" name="Tableau croisé dynamique1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0">
+      <items count="19">
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1806,10 +2244,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="4" showAll="0"/>
-    <pivotField numFmtId="4" showAll="0"/>
-    <pivotField numFmtId="4" showAll="0"/>
-    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
@@ -1829,7 +2265,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Nombre de SALAIRE" fld="2" subtotal="count" baseField="3" baseItem="0"/>
+    <dataField name="Moyenne de SALAIRE" fld="2" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2162,8 +2598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F411D67-996A-404E-9415-25AE7EE0DB99}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2174,15 +2610,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
+      <c r="A2" s="9"/>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2198,7 +2634,7 @@
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>34</v>
       </c>
     </row>
@@ -2206,7 +2642,7 @@
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>36</v>
       </c>
     </row>
@@ -2214,7 +2650,7 @@
       <c r="A8" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>70</v>
       </c>
     </row>
@@ -2347,14 +2783,15 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
@@ -2396,16 +2833,16 @@
       <c r="J1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>92</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2911,7 +3348,7 @@
         <v>25</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A11,LEN(A11)-2)</f>
         <v>10</v>
       </c>
       <c r="I11" t="str">
@@ -6126,11 +6563,954 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82D6B49-E603-47CB-8AD5-E647C0A07B0F}">
-  <dimension ref="A1:C70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12D168C-76EC-49DE-BD93-C65D479E71E2}">
+  <dimension ref="A3:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12">
+        <v>51278.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12">
+        <v>52918.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="12">
+        <v>52007.388888888891</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69181EA7-C5ED-44DA-AE66-CDF4D0216099}">
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>B2&amp;D2&amp;E2</f>
+        <v>1MC</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>51636</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="str">
+        <f>VLOOKUP(E2,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Employé</v>
+      </c>
+      <c r="G2">
+        <f>VLOOKUP(E2,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H2" t="str">
+        <f>LEFT(A2,LEN(A2)-2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" t="str">
+        <f>LEFT(RIGHT(A2,2))</f>
+        <v>M</v>
+      </c>
+      <c r="J2" t="str">
+        <f>RIGHT(A2,1)</f>
+        <v>C</v>
+      </c>
+      <c r="K2" s="12">
+        <f>AVERAGEIF(D:D,D2,C:C)</f>
+        <v>52918.375</v>
+      </c>
+      <c r="L2" s="12">
+        <f>SUM(C:C)</f>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A19" si="0">B3&amp;D3&amp;E3</f>
+        <v>2FB</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>49743</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="str">
+        <f>VLOOKUP(E3,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Agent de maitrise</v>
+      </c>
+      <c r="G3">
+        <f>VLOOKUP(E3,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H19" si="1">LEFT(A3,LEN(A3)-2)</f>
+        <v>2</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I19" si="2">LEFT(RIGHT(A3,2))</f>
+        <v>F</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J19" si="3">RIGHT(A3,1)</f>
+        <v>B</v>
+      </c>
+      <c r="K3" s="12">
+        <f>AVERAGEIF(D:D,D3,C:C)</f>
+        <v>51278.6</v>
+      </c>
+      <c r="L3" s="12">
+        <f t="shared" ref="L3:L19" si="4">SUM(C:C)</f>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>3MC</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11">
+        <v>51775</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="str">
+        <f>VLOOKUP(E4,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Employé</v>
+      </c>
+      <c r="G4">
+        <f>VLOOKUP(E4,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" ref="K3:K19" si="5">AVERAGEIF(D:D,D4,C:C)</f>
+        <v>52918.375</v>
+      </c>
+      <c r="L4" s="12">
+        <f t="shared" si="4"/>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>4FB</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11">
+        <v>40552</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(E5,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Agent de maitrise</v>
+      </c>
+      <c r="G5">
+        <f>VLOOKUP(E5,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="5"/>
+        <v>51278.6</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="4"/>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>5MC</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
+        <v>54023</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="str">
+        <f>VLOOKUP(E6,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Employé</v>
+      </c>
+      <c r="G6">
+        <f>VLOOKUP(E6,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="5"/>
+        <v>52918.375</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="4"/>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>6MC</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11">
+        <v>51844</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(E7,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Employé</v>
+      </c>
+      <c r="G7">
+        <f>VLOOKUP(E7,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="5"/>
+        <v>52918.375</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="4"/>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>7MC</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11">
+        <v>67412</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP(E8,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Employé</v>
+      </c>
+      <c r="G8">
+        <f>VLOOKUP(E8,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="5"/>
+        <v>52918.375</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="4"/>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>8FA</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>52591</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="str">
+        <f>VLOOKUP(E9,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Cadre</v>
+      </c>
+      <c r="G9">
+        <f>VLOOKUP(E9,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="5"/>
+        <v>51278.6</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="4"/>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>9MC</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11">
+        <v>48051</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="str">
+        <f>VLOOKUP(E10,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Employé</v>
+      </c>
+      <c r="G10">
+        <f>VLOOKUP(E10,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="5"/>
+        <v>52918.375</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="4"/>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>10MC</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11">
+        <v>63443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="str">
+        <f>VLOOKUP(E11,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Employé</v>
+      </c>
+      <c r="G11">
+        <f>VLOOKUP(E11,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" si="5"/>
+        <v>52918.375</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="4"/>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>11FC</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11">
+        <v>36991</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="str">
+        <f>VLOOKUP(E12,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Employé</v>
+      </c>
+      <c r="G12">
+        <f>VLOOKUP(E12,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="5"/>
+        <v>51278.6</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="4"/>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>12FA</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
+        <v>65864</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="str">
+        <f>VLOOKUP(E13,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Cadre</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP(E13,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="5"/>
+        <v>51278.6</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="4"/>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>13FB</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11">
+        <v>48521</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="str">
+        <f>VLOOKUP(E14,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Agent de maitrise</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP(E14,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="5"/>
+        <v>51278.6</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="4"/>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>14FB</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11">
+        <v>52506</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="str">
+        <f>VLOOKUP(E15,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Agent de maitrise</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP(E15,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="5"/>
+        <v>51278.6</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="4"/>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>15FC</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11">
+        <v>47749</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="str">
+        <f>VLOOKUP(E16,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Employé</v>
+      </c>
+      <c r="G16">
+        <f>VLOOKUP(E16,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="5"/>
+        <v>51278.6</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="4"/>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>16FC</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="11">
+        <v>62956</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="str">
+        <f>VLOOKUP(E17,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Employé</v>
+      </c>
+      <c r="G17">
+        <f>VLOOKUP(E17,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="5"/>
+        <v>51278.6</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="4"/>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>17FA</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="11">
+        <v>55313</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="str">
+        <f>VLOOKUP(E18,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Cadre</v>
+      </c>
+      <c r="G18">
+        <f>VLOOKUP(E18,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="5"/>
+        <v>51278.6</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="4"/>
+        <v>936133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>18MC</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="11">
+        <v>35163</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="str">
+        <f>VLOOKUP(E19,NIVEAU!$A$2:$C$4,2,FALSE)</f>
+        <v>Employé</v>
+      </c>
+      <c r="G19">
+        <f>VLOOKUP(E19,NIVEAU!$A$2:$C$4,3,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="5"/>
+        <v>52918.375</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="4"/>
+        <v>936133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82D6B49-E603-47CB-8AD5-E647C0A07B0F}">
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6138,12 +7518,12 @@
     <col min="1" max="1" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>39941</v>
       </c>
@@ -6151,155 +7531,311 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>55330</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>48025</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>35239</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f t="shared" ref="G5:H23" ca="1" si="0">RANDBETWEEN(35000,70000)</f>
+        <v>44067</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>69354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>34718</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>50878</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="0"/>
+        <v>37137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>46788</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>63950</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
+        <v>38702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>39854</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>62550</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>60455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>47184</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>42238</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>61491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>47753</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>55748</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="0"/>
+        <v>61528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>57446</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>50195</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="0"/>
+        <v>51970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>53014</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>38110</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="0"/>
+        <v>67531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>35854</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>53674</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="0"/>
+        <v>48498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43185</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>53350</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
+        <v>64226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>56405</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>51854</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
+        <v>37961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43706</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>43157</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="0"/>
+        <v>35262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45792</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
+        <v>40004</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="0"/>
+        <v>60039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>52194</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <f t="shared" ca="1" si="0"/>
+        <v>67785</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="0"/>
+        <v>51334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36198</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <f t="shared" ca="1" si="0"/>
+        <v>61381</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="0"/>
+        <v>67971</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>41193</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <f t="shared" ca="1" si="0"/>
+        <v>47416</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="0"/>
+        <v>48696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>46271</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <f t="shared" ca="1" si="0"/>
+        <v>61419</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>31508</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f t="shared" ca="1" si="0"/>
+        <v>51862</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="0"/>
+        <v>39684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>54436</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <f t="shared" ca="1" si="0"/>
+        <v>64387</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="0"/>
+        <v>61087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>31938</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>48739</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>49189</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>35093</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>38332</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>31602</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>42299</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>52438</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>34417</v>
       </c>
@@ -6505,12 +8041,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA55CCA6-3B6E-4E77-A4C1-76495C64397C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
